--- a/results_final/ei_LL.xlsx
+++ b/results_final/ei_LL.xlsx
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.560826639597811</v>
+        <v>1.560826639597812</v>
       </c>
       <c r="C3">
         <v>1.242580578481868</v>
@@ -620,85 +620,85 @@
         <v>1.012039502711086</v>
       </c>
       <c r="E3">
-        <v>0.8413623568474423</v>
+        <v>0.8413623568474429</v>
       </c>
       <c r="F3">
-        <v>0.7125086302461741</v>
+        <v>0.7125086302461746</v>
       </c>
       <c r="G3">
-        <v>0.6135026960143919</v>
+        <v>0.6135026960143923</v>
       </c>
       <c r="H3">
-        <v>0.5362165170135341</v>
+        <v>0.5362165170135346</v>
       </c>
       <c r="I3">
-        <v>0.4750195982409879</v>
+        <v>0.4750195982409883</v>
       </c>
       <c r="J3">
-        <v>0.4259373598155742</v>
+        <v>0.4259373598155746</v>
       </c>
       <c r="K3">
-        <v>0.3861148638312748</v>
+        <v>0.3861148638312751</v>
       </c>
       <c r="L3">
-        <v>0.3534681019392057</v>
+        <v>0.353468101939206</v>
       </c>
       <c r="M3">
-        <v>0.3264529251463119</v>
+        <v>0.3264529251463121</v>
       </c>
       <c r="N3">
-        <v>0.3039092140025248</v>
+        <v>0.303909214002525</v>
       </c>
       <c r="O3">
-        <v>0.2849540539855709</v>
+        <v>0.2849540539855712</v>
       </c>
       <c r="P3">
-        <v>0.2689073762943204</v>
+        <v>0.2689073762943207</v>
       </c>
       <c r="Q3">
-        <v>0.2552394518049726</v>
+        <v>0.2552394518049728</v>
       </c>
       <c r="R3">
-        <v>0.2435333159974114</v>
+        <v>0.2435333159974115</v>
       </c>
       <c r="S3">
-        <v>0.2334575391646757</v>
+        <v>0.2334575391646758</v>
       </c>
       <c r="T3">
-        <v>0.224746259506435</v>
+        <v>0.2247462595064351</v>
       </c>
       <c r="U3">
-        <v>0.2171843785846414</v>
+        <v>0.2171843785846415</v>
       </c>
       <c r="V3">
-        <v>0.2105964691102382</v>
+        <v>0.2105964691102384</v>
       </c>
       <c r="W3">
-        <v>0.2048383817976894</v>
+        <v>0.2048383817976895</v>
       </c>
       <c r="X3">
-        <v>0.1997908350319815</v>
+        <v>0.1997908350319816</v>
       </c>
       <c r="Y3">
         <v>0.1953544755006273</v>
       </c>
       <c r="Z3">
-        <v>0.1914460402300955</v>
+        <v>0.1914460402300956</v>
       </c>
       <c r="AA3">
-        <v>0.1879953505844306</v>
+        <v>0.1879953505844307</v>
       </c>
       <c r="AB3">
         <v>0.1849429399550788</v>
       </c>
       <c r="AC3">
-        <v>0.1822381679583203</v>
+        <v>0.1822381679583204</v>
       </c>
       <c r="AD3">
-        <v>0.1798377109677135</v>
+        <v>0.1798377109677136</v>
       </c>
       <c r="AE3">
-        <v>0.1777043458584016</v>
+        <v>0.1777043458584017</v>
       </c>
       <c r="AF3">
         <v>0.1758059637748912</v>
@@ -905,97 +905,97 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.078760376804843</v>
+        <v>3.078760376804844</v>
       </c>
       <c r="C6">
-        <v>1.815660816821453</v>
+        <v>1.815660816821455</v>
       </c>
       <c r="D6">
-        <v>1.128827733324684</v>
+        <v>1.128827733324685</v>
       </c>
       <c r="E6">
-        <v>0.7359720563715516</v>
+        <v>0.7359720563715527</v>
       </c>
       <c r="F6">
-        <v>0.5008084110876025</v>
+        <v>0.5008084110876033</v>
       </c>
       <c r="G6">
-        <v>0.3541611134691116</v>
+        <v>0.3541611134691122</v>
       </c>
       <c r="H6">
-        <v>0.2592848898741669</v>
+        <v>0.2592848898741674</v>
       </c>
       <c r="I6">
-        <v>0.1958375237941432</v>
+        <v>0.1958375237941435</v>
       </c>
       <c r="J6">
-        <v>0.1521257526140613</v>
+        <v>0.1521257526140616</v>
       </c>
       <c r="K6">
-        <v>0.1211933770947977</v>
+        <v>0.1211933770947979</v>
       </c>
       <c r="L6">
-        <v>0.09877053819493657</v>
+        <v>0.09877053819493677</v>
       </c>
       <c r="M6">
-        <v>0.08216012659280157</v>
+        <v>0.08216012659280174</v>
       </c>
       <c r="N6">
-        <v>0.06961317007970731</v>
+        <v>0.06961317007970746</v>
       </c>
       <c r="O6">
-        <v>0.05996787943880793</v>
+        <v>0.05996787943880807</v>
       </c>
       <c r="P6">
-        <v>0.05243523806704879</v>
+        <v>0.05243523806704891</v>
       </c>
       <c r="Q6">
-        <v>0.04646835957281267</v>
+        <v>0.04646835957281278</v>
       </c>
       <c r="R6">
-        <v>0.04168099028765736</v>
+        <v>0.04168099028765747</v>
       </c>
       <c r="S6">
-        <v>0.03779554806969414</v>
+        <v>0.03779554806969423</v>
       </c>
       <c r="T6">
-        <v>0.03460931504271488</v>
+        <v>0.03460931504271497</v>
       </c>
       <c r="U6">
-        <v>0.03197202363436594</v>
+        <v>0.03197202363436602</v>
       </c>
       <c r="V6">
-        <v>0.02977073345241305</v>
+        <v>0.02977073345241312</v>
       </c>
       <c r="W6">
-        <v>0.02791945924692027</v>
+        <v>0.02791945924692034</v>
       </c>
       <c r="X6">
-        <v>0.0263519479360487</v>
+        <v>0.02635194793604877</v>
       </c>
       <c r="Y6">
-        <v>0.02501657629352922</v>
+        <v>0.02501657629352928</v>
       </c>
       <c r="Z6">
-        <v>0.02387269817348244</v>
+        <v>0.0238726981734825</v>
       </c>
       <c r="AA6">
-        <v>0.02288799648242589</v>
+        <v>0.02288799648242595</v>
       </c>
       <c r="AB6">
-        <v>0.02203654079614208</v>
+        <v>0.02203654079614214</v>
       </c>
       <c r="AC6">
-        <v>0.02129734671642256</v>
+        <v>0.02129734671642261</v>
       </c>
       <c r="AD6">
-        <v>0.02065329615621949</v>
+        <v>0.02065329615621954</v>
       </c>
       <c r="AE6">
-        <v>0.02009032012170849</v>
+        <v>0.02009032012170854</v>
       </c>
       <c r="AF6">
-        <v>0.01959677438914541</v>
+        <v>0.01959677438914546</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1205,91 +1205,91 @@
         <v>1.564657177444222</v>
       </c>
       <c r="D9">
-        <v>1.18646830390356</v>
+        <v>1.186468303903561</v>
       </c>
       <c r="E9">
-        <v>0.9249311166572323</v>
+        <v>0.9249311166572337</v>
       </c>
       <c r="F9">
-        <v>0.7392261386865344</v>
+        <v>0.7392261386865359</v>
       </c>
       <c r="G9">
-        <v>0.6041968366127132</v>
+        <v>0.6041968366127145</v>
       </c>
       <c r="H9">
-        <v>0.5038943236523623</v>
+        <v>0.5038943236523635</v>
       </c>
       <c r="I9">
-        <v>0.4279414788434239</v>
+        <v>0.427941478843425</v>
       </c>
       <c r="J9">
-        <v>0.369423746601512</v>
+        <v>0.3694237466015131</v>
       </c>
       <c r="K9">
-        <v>0.3236318019330908</v>
+        <v>0.3236318019330918</v>
       </c>
       <c r="L9">
-        <v>0.2872929282198184</v>
+        <v>0.2872929282198194</v>
       </c>
       <c r="M9">
-        <v>0.2580900762655887</v>
+        <v>0.2580900762655896</v>
       </c>
       <c r="N9">
-        <v>0.2343543607309821</v>
+        <v>0.234354360730983</v>
       </c>
       <c r="O9">
-        <v>0.2148644662071076</v>
+        <v>0.2148644662071083</v>
       </c>
       <c r="P9">
-        <v>0.1987133306220727</v>
+        <v>0.1987133306220735</v>
       </c>
       <c r="Q9">
-        <v>0.1852179896238427</v>
+        <v>0.1852179896238434</v>
       </c>
       <c r="R9">
-        <v>0.1738576131823512</v>
+        <v>0.1738576131823519</v>
       </c>
       <c r="S9">
-        <v>0.1642302694600264</v>
+        <v>0.1642302694600271</v>
       </c>
       <c r="T9">
-        <v>0.1560223261618058</v>
+        <v>0.1560223261618064</v>
       </c>
       <c r="U9">
-        <v>0.1489865067221262</v>
+        <v>0.1489865067221268</v>
       </c>
       <c r="V9">
-        <v>0.1429259565050812</v>
+        <v>0.1429259565050818</v>
       </c>
       <c r="W9">
-        <v>0.1376825371184646</v>
+        <v>0.1376825371184652</v>
       </c>
       <c r="X9">
-        <v>0.1331281319121206</v>
+        <v>0.1331281319121211</v>
       </c>
       <c r="Y9">
-        <v>0.1291581208665546</v>
+        <v>0.1291581208665552</v>
       </c>
       <c r="Z9">
-        <v>0.1256864354973678</v>
+        <v>0.1256864354973684</v>
       </c>
       <c r="AA9">
-        <v>0.1226417763960283</v>
+        <v>0.1226417763960289</v>
       </c>
       <c r="AB9">
-        <v>0.1199646946246298</v>
+        <v>0.1199646946246303</v>
       </c>
       <c r="AC9">
-        <v>0.1176053208863882</v>
+        <v>0.1176053208863887</v>
       </c>
       <c r="AD9">
-        <v>0.1155215846872477</v>
+        <v>0.1155215846872482</v>
       </c>
       <c r="AE9">
-        <v>0.1136778072107723</v>
+        <v>0.1136778072107728</v>
       </c>
       <c r="AF9">
-        <v>0.1120435814686165</v>
+        <v>0.112043581468617</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>1.411902709128922</v>
       </c>
       <c r="C10">
-        <v>0.9678782929456798</v>
+        <v>0.9678782929456791</v>
       </c>
       <c r="D10">
-        <v>0.6890252388513604</v>
+        <v>0.6890252388513594</v>
       </c>
       <c r="E10">
-        <v>0.5074673118818426</v>
+        <v>0.5074673118818415</v>
       </c>
       <c r="F10">
-        <v>0.3853574157791989</v>
+        <v>0.3853574157791977</v>
       </c>
       <c r="G10">
-        <v>0.3007972104024741</v>
+        <v>0.3007972104024731</v>
       </c>
       <c r="H10">
-        <v>0.2406815941178437</v>
+        <v>0.2406815941178428</v>
       </c>
       <c r="I10">
-        <v>0.1969223667734157</v>
+        <v>0.1969223667734149</v>
       </c>
       <c r="J10">
-        <v>0.1643849286968765</v>
+        <v>0.1643849286968758</v>
       </c>
       <c r="K10">
-        <v>0.1397243999823792</v>
+        <v>0.1397243999823785</v>
       </c>
       <c r="L10">
-        <v>0.1207095090128819</v>
+        <v>0.1207095090128812</v>
       </c>
       <c r="M10">
-        <v>0.1058190334912722</v>
+        <v>0.1058190334912716</v>
       </c>
       <c r="N10">
-        <v>0.09399480839959659</v>
+        <v>0.09399480839959602</v>
       </c>
       <c r="O10">
-        <v>0.08448700903263601</v>
+        <v>0.08448700903263548</v>
       </c>
       <c r="P10">
-        <v>0.07675512752538823</v>
+        <v>0.07675512752538773</v>
       </c>
       <c r="Q10">
-        <v>0.07040331573567944</v>
+        <v>0.07040331573567897</v>
       </c>
       <c r="R10">
-        <v>0.06513737569873479</v>
+        <v>0.06513737569873435</v>
       </c>
       <c r="S10">
-        <v>0.06073565047678711</v>
+        <v>0.06073565047678668</v>
       </c>
       <c r="T10">
-        <v>0.05702900230409118</v>
+        <v>0.05702900230409076</v>
       </c>
       <c r="U10">
-        <v>0.0538868319641136</v>
+        <v>0.0538868319641132</v>
       </c>
       <c r="V10">
-        <v>0.0512071779343041</v>
+        <v>0.05120717793430372</v>
       </c>
       <c r="W10">
-        <v>0.04890961153385846</v>
+        <v>0.0489096115338581</v>
       </c>
       <c r="X10">
-        <v>0.04693007492225626</v>
+        <v>0.0469300749222559</v>
       </c>
       <c r="Y10">
-        <v>0.04521708676023303</v>
+        <v>0.04521708676023267</v>
       </c>
       <c r="Z10">
-        <v>0.04372892246097065</v>
+        <v>0.04372892246097031</v>
       </c>
       <c r="AA10">
-        <v>0.04243149696389941</v>
+        <v>0.04243149696389908</v>
       </c>
       <c r="AB10">
-        <v>0.04129675943606063</v>
+        <v>0.04129675943606031</v>
       </c>
       <c r="AC10">
-        <v>0.04030146485337094</v>
+        <v>0.04030146485337062</v>
       </c>
       <c r="AD10">
-        <v>0.03942622573789174</v>
+        <v>0.03942622573789142</v>
       </c>
       <c r="AE10">
-        <v>0.0386547740667617</v>
+        <v>0.0386547740667614</v>
       </c>
       <c r="AF10">
-        <v>0.03797338222530551</v>
+        <v>0.03797338222530521</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1401,91 +1401,91 @@
         <v>1.365761454906526</v>
       </c>
       <c r="D11">
-        <v>1.249770455320155</v>
+        <v>1.249770455320154</v>
       </c>
       <c r="E11">
-        <v>1.153825453953738</v>
+        <v>1.153825453953737</v>
       </c>
       <c r="F11">
-        <v>1.073789099853375</v>
+        <v>1.073789099853374</v>
       </c>
       <c r="G11">
-        <v>1.006514368690975</v>
+        <v>1.006514368690973</v>
       </c>
       <c r="H11">
-        <v>0.9495784900252781</v>
+        <v>0.9495784900252759</v>
       </c>
       <c r="I11">
-        <v>0.9010951842408595</v>
+        <v>0.9010951842408573</v>
       </c>
       <c r="J11">
-        <v>0.8595803697882191</v>
+        <v>0.8595803697882169</v>
       </c>
       <c r="K11">
-        <v>0.8238548964712694</v>
+        <v>0.8238548964712672</v>
       </c>
       <c r="L11">
-        <v>0.7929732581898938</v>
+        <v>0.7929732581898915</v>
       </c>
       <c r="M11">
-        <v>0.7661707617743923</v>
+        <v>0.7661707617743899</v>
       </c>
       <c r="N11">
-        <v>0.7428239612584034</v>
+        <v>0.7428239612584011</v>
       </c>
       <c r="O11">
-        <v>0.7224207323205558</v>
+        <v>0.7224207323205535</v>
       </c>
       <c r="P11">
-        <v>0.7045374255281911</v>
+        <v>0.7045374255281888</v>
       </c>
       <c r="Q11">
-        <v>0.6888212688432184</v>
+        <v>0.688821268843216</v>
       </c>
       <c r="R11">
-        <v>0.6749766990212581</v>
+        <v>0.6749766990212558</v>
       </c>
       <c r="S11">
-        <v>0.6627546596412653</v>
+        <v>0.662754659641263</v>
       </c>
       <c r="T11">
-        <v>0.6519441579583511</v>
+        <v>0.6519441579583487</v>
       </c>
       <c r="U11">
-        <v>0.6423655553469254</v>
+        <v>0.642365555346923</v>
       </c>
       <c r="V11">
-        <v>0.6338651983175464</v>
+        <v>0.633865198317544</v>
       </c>
       <c r="W11">
-        <v>0.6263110936845671</v>
+        <v>0.6263110936845646</v>
       </c>
       <c r="X11">
-        <v>0.6195894026232213</v>
+        <v>0.6195894026232188</v>
       </c>
       <c r="Y11">
-        <v>0.6136015811992129</v>
+        <v>0.6136015811992105</v>
       </c>
       <c r="Z11">
-        <v>0.6082620344945897</v>
+        <v>0.6082620344945874</v>
       </c>
       <c r="AA11">
-        <v>0.603496181254352</v>
+        <v>0.6034961812543497</v>
       </c>
       <c r="AB11">
-        <v>0.5992388485932644</v>
+        <v>0.599238848593262</v>
       </c>
       <c r="AC11">
-        <v>0.5954329335774042</v>
+        <v>0.5954329335774019</v>
       </c>
       <c r="AD11">
-        <v>0.5920282817739921</v>
+        <v>0.5920282817739898</v>
       </c>
       <c r="AE11">
-        <v>0.5889807431317384</v>
+        <v>0.5889807431317361</v>
       </c>
       <c r="AF11">
-        <v>0.5862513735404309</v>
+        <v>0.5862513735404287</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1502,7 +1502,7 @@
         <v>1.791519682234282</v>
       </c>
       <c r="E12">
-        <v>1.572036650932538</v>
+        <v>1.572036650932537</v>
       </c>
       <c r="F12">
         <v>1.397589541404606</v>
@@ -1511,79 +1511,79 @@
         <v>1.257201583815378</v>
       </c>
       <c r="H12">
-        <v>1.142951150579507</v>
+        <v>1.142951150579506</v>
       </c>
       <c r="I12">
-        <v>1.04903056916624</v>
+        <v>1.049030569166239</v>
       </c>
       <c r="J12">
-        <v>0.9711192682029547</v>
+        <v>0.971119268202954</v>
       </c>
       <c r="K12">
-        <v>0.9059590249182132</v>
+        <v>0.9059590249182126</v>
       </c>
       <c r="L12">
-        <v>0.8510614945927768</v>
+        <v>0.851061494592776</v>
       </c>
       <c r="M12">
-        <v>0.8045037804168341</v>
+        <v>0.8045037804168333</v>
       </c>
       <c r="N12">
-        <v>0.764783521763106</v>
+        <v>0.7647835217631052</v>
       </c>
       <c r="O12">
-        <v>0.7307148129450598</v>
+        <v>0.7307148129450589</v>
       </c>
       <c r="P12">
-        <v>0.7013525201940867</v>
+        <v>0.7013525201940858</v>
       </c>
       <c r="Q12">
-        <v>0.6759366069807728</v>
+        <v>0.675936606980772</v>
       </c>
       <c r="R12">
-        <v>0.6538507289598986</v>
+        <v>0.6538507289598978</v>
       </c>
       <c r="S12">
-        <v>0.6345911230156693</v>
+        <v>0.6345911230156687</v>
       </c>
       <c r="T12">
-        <v>0.6177430031119265</v>
+        <v>0.6177430031119259</v>
       </c>
       <c r="U12">
-        <v>0.6029624864653853</v>
+        <v>0.6029624864653846</v>
       </c>
       <c r="V12">
-        <v>0.5899626334135619</v>
+        <v>0.5899626334135614</v>
       </c>
       <c r="W12">
-        <v>0.5785025752722702</v>
+        <v>0.5785025752722697</v>
       </c>
       <c r="X12">
-        <v>0.5683789803577934</v>
+        <v>0.5683789803577928</v>
       </c>
       <c r="Y12">
-        <v>0.5594193050138143</v>
+        <v>0.5594193050138137</v>
       </c>
       <c r="Z12">
-        <v>0.5514764180269751</v>
+        <v>0.5514764180269744</v>
       </c>
       <c r="AA12">
-        <v>0.5444242896178767</v>
+        <v>0.544424289617876</v>
       </c>
       <c r="AB12">
-        <v>0.538154511508561</v>
+        <v>0.5381545115085603</v>
       </c>
       <c r="AC12">
-        <v>0.5325734701992617</v>
+        <v>0.532573470199261</v>
       </c>
       <c r="AD12">
-        <v>0.5276000370034115</v>
+        <v>0.5276000370034108</v>
       </c>
       <c r="AE12">
-        <v>0.5231636694539099</v>
+        <v>0.5231636694539092</v>
       </c>
       <c r="AF12">
-        <v>0.5192028421592803</v>
+        <v>0.5192028421592796</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1597,91 +1597,91 @@
         <v>1.335384803242596</v>
       </c>
       <c r="D13">
-        <v>1.373104886170786</v>
+        <v>1.373104886170787</v>
       </c>
       <c r="E13">
-        <v>1.407963081524484</v>
+        <v>1.407963081524485</v>
       </c>
       <c r="F13">
-        <v>1.440091431727954</v>
+        <v>1.440091431727955</v>
       </c>
       <c r="G13">
-        <v>1.469633305861133</v>
+        <v>1.469633305861134</v>
       </c>
       <c r="H13">
-        <v>1.496738786238964</v>
+        <v>1.496738786238965</v>
       </c>
       <c r="I13">
-        <v>1.521560893363111</v>
+        <v>1.521560893363112</v>
       </c>
       <c r="J13">
-        <v>1.544252559398828</v>
+        <v>1.544252559398829</v>
       </c>
       <c r="K13">
-        <v>1.56496425629241</v>
+        <v>1.564964256292412</v>
       </c>
       <c r="L13">
-        <v>1.583842186198432</v>
+        <v>1.583842186198434</v>
       </c>
       <c r="M13">
-        <v>1.601026947091509</v>
+        <v>1.601026947091511</v>
       </c>
       <c r="N13">
-        <v>1.616652593819025</v>
+        <v>1.616652593819027</v>
       </c>
       <c r="O13">
-        <v>1.630846023325</v>
+        <v>1.630846023325002</v>
       </c>
       <c r="P13">
-        <v>1.643726621574458</v>
+        <v>1.64372662157446</v>
       </c>
       <c r="Q13">
-        <v>1.655406118314961</v>
+        <v>1.655406118314963</v>
       </c>
       <c r="R13">
-        <v>1.665988603899371</v>
+        <v>1.665988603899374</v>
       </c>
       <c r="S13">
-        <v>1.67557066977305</v>
+        <v>1.675570669773053</v>
       </c>
       <c r="T13">
-        <v>1.684241640811185</v>
+        <v>1.684241640811187</v>
       </c>
       <c r="U13">
-        <v>1.692083873457981</v>
+        <v>1.692083873457984</v>
       </c>
       <c r="V13">
-        <v>1.699173098594339</v>
+        <v>1.699173098594341</v>
       </c>
       <c r="W13">
-        <v>1.70557879229742</v>
+        <v>1.705578792297423</v>
       </c>
       <c r="X13">
-        <v>1.711364561222287</v>
+        <v>1.711364561222289</v>
       </c>
       <c r="Y13">
-        <v>1.716588532307117</v>
+        <v>1.716588532307119</v>
       </c>
       <c r="Z13">
-        <v>1.721303738954473</v>
+        <v>1.721303738954475</v>
       </c>
       <c r="AA13">
-        <v>1.725558497843596</v>
+        <v>1.725558497843598</v>
       </c>
       <c r="AB13">
-        <v>1.729396772149238</v>
+        <v>1.72939677214924</v>
       </c>
       <c r="AC13">
-        <v>1.732858518241111</v>
+        <v>1.732858518241113</v>
       </c>
       <c r="AD13">
-        <v>1.735980013967684</v>
+        <v>1.735980013967687</v>
       </c>
       <c r="AE13">
-        <v>1.738794167434975</v>
+        <v>1.738794167434977</v>
       </c>
       <c r="AF13">
-        <v>1.741330805814929</v>
+        <v>1.741330805814931</v>
       </c>
     </row>
   </sheetData>
